--- a/pred_ohlcv/54_21/2020-01-24 XSR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 XSR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-7791278.956283757</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-7878724.876583757</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-7838761.109983757</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-8543336.759683758</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-8543336.759683758</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-9022464.749683758</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-9021824.486383758</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-9208071.637983758</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-8927444.296383759</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-34595056.11576661</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-34905845.40336661</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-36114517.26066661</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-36113740.26066661</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-36110286.97246661</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-36857487.62566663</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-36857487.62566663</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-36857389.10046662</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-36857389.10046662</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-36858055.10046662</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-36857956.64596663</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-37512570.65636662</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-38174482.29816663</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-38174482.29816663</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-38233066.10366663</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-39004118.29046663</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-39004318.29046663</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-38480070.86296663</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-38480170.86296663</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-38576379.12316663</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-38040780.56246663</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-38042590.40576663</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-38061955.41946663</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-38473996.83276663</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-38473996.83276663</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-38875813.84736663</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-39278854.68836664</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-34793391.74926665</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-36627091.84386665</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-36627091.84386665</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-36525214.58396664</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-36904241.76146664</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-36904241.76146664</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-54745748.95989073</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-54033946.65749072</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-54342755.07549072</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-53557090.29169072</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-54225271.20409072</v>
       </c>
       <c r="H868">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-53854406.98389072</v>
       </c>
       <c r="H870">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-53659493.90439072</v>
       </c>
       <c r="H871">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-53043505.95799072</v>
       </c>
       <c r="H872">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-53042177.85639072</v>
       </c>
       <c r="H873">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-52590774.81349072</v>
       </c>
       <c r="H874">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-51998201.38909072</v>
       </c>
       <c r="H875">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-50447328.37849071</v>
       </c>
       <c r="H914">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-51056331.9662907</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-51292294.3887907</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-52006987.1066907</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-51608766.30609071</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-53533488.1575907</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-52983538.2197907</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-54348803.3137907</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-54399243.7190907</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-54008308.88652711</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-53970846.5440907</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-53484510.33099069</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="977" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 XSR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 XSR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-7791278.956283757</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-7878724.876583757</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-7838761.109983757</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-8543336.759683758</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-8543336.759683758</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-9022464.749683758</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-9021824.486383758</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-9208071.637983758</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-8602207.816283759</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-8927444.296383759</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-8927444.296383759</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-8927444.296383759</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-9396551.218583759</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-9125938.144883759</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-9976427.538683759</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-9928462.175483759</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-10461905.24708376</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-9833966.46138376</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-10699192.94088376</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-10699192.94088376</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-12503578.73618376</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-12867679.11508376</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-13493477.09038376</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-12835598.42368376</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-11205877.29928376</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-11319602.91918376</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-13556959.94638376</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-13655625.53558376</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-14244236.18628376</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-14550534.47618376</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-14550391.47618376</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-15283329.66478376</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-15988356.96418376</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-15657442.15848376</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-15657094.99788376</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-15657193.99788376</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-14943193.16388376</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-14943193.16388376</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-14943193.16388376</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-14946198.00388376</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-14944599.00388376</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-15484110.77818376</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-15225171.19698376</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-14158472.26148376</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-14732303.95548376</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-14732303.95548376</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-14732303.95548376</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-14520907.97158376</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-14520809.95908376</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-14960249.53018376</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-15832086.59738376</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-15314498.88608376</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-15314398.88608376</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-15753556.30018376</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-15754124.59334464</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-15754797.59334464</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-16031586.72814464</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-16029849.49724464</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-16782835.05054464</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-16782835.05054464</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-16423171.92324464</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-17242053.26034464</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-17853078.34334464</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-17852415.34334464</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-18843022.69364464</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-18178205.21364464</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-18159517.17454464</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-18917907.73134464</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-18917507.73134464</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-19407906.88274464</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-19419049.39424464</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-20160180.72634465</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-20160180.72634465</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-20583844.81864465</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-20225140.16144465</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-20220426.16144465</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-20220504.80294465</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-20196235.03364465</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-20600079.06234465</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-20879074.90264465</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-21298577.96244465</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-21299118.01854465</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-22036043.34314465</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-21434620.80234465</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-21481739.67104465</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-21329719.24974465</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-22012621.76424465</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-21353649.85494465</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-22091141.56794465</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-22091041.56794465</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-22091041.56794465</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-22456504.70084465</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-22457791.49134465</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-22447791.49134465</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-22447791.49134465</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-22974702.56004465</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-22974196.56004465</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-23730245.72334465</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-23100614.09964465</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-23710502.84264465</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-23710502.84264465</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-23710502.84264465</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-23710404.33014465</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-23710404.33014465</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-24384630.65804465</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-24384630.65804465</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-23685448.73124465</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-23686448.73124465</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-24438454.51474465</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-24438054.69134182</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-25195437.37654182</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-24769281.45894182</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-24572993.09974182</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-24699363.63754182</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-24699363.63754182</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-24827793.07445446</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-34595056.11576661</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-34905845.40336661</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-36114517.26066661</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-36113740.26066661</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-36110286.97246661</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-36857487.62566663</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-36857487.62566663</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-36857389.10046662</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-36857389.10046662</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-36858055.10046662</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-36857956.64596663</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-37512570.65636662</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-38174482.29816663</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-38174482.29816663</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-38233066.10366663</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-39004118.29046663</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-39004318.29046663</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-38480070.86296663</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-38480170.86296663</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-38576379.12316663</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-38040780.56246663</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-38042590.40576663</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-38061955.41946663</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-38473996.83276663</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-38473996.83276663</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-38875813.84736663</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-39278854.68836664</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-34793391.74926665</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-36627091.84386665</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-36627091.84386665</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-36525214.58396664</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-36904241.76146664</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-36904241.76146664</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-54745748.95989073</v>
       </c>
       <c r="H852">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-54033946.65749072</v>
       </c>
       <c r="H856">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-54342755.07549072</v>
       </c>
       <c r="H864">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-53557090.29169072</v>
       </c>
       <c r="H865">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-53854406.98389072</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-53659493.90439072</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-53043505.95799072</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-53042177.85639072</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-52590774.81349072</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-51998201.38909072</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-52990198.77729072</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-50447328.37849071</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-50942628.09219071</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-50911838.80539071</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-50910838.80539071</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-50490092.16199071</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-49689820.5634907</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-51056331.9662907</v>
       </c>
       <c r="H942">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-51292294.3887907</v>
       </c>
       <c r="H951">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-52006987.1066907</v>
       </c>
       <c r="H954">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-51608766.30609071</v>
       </c>
       <c r="H955">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-53533488.1575907</v>
       </c>
       <c r="H956">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-52983538.2197907</v>
       </c>
       <c r="H962">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-54348803.3137907</v>
       </c>
       <c r="H972">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-54399243.7190907</v>
       </c>
       <c r="H973">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-54008308.88652711</v>
       </c>
       <c r="H974">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-53970846.5440907</v>
       </c>
       <c r="H975">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8">
